--- a/SISTEMAS BIOMÉDICOS.xlsx
+++ b/SISTEMAS BIOMÉDICOS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CLAVES SIP-DGAE\Análisis de claves\CLAVES-FORMATOS FINALES\FORMATOS FINALES CORREGIDOS COMPLETOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ss\PlanesEstudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Apoyo_Academico" sheetId="4" r:id="rId2"/>
     <sheet name="Formacion_Complementaria" sheetId="5" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Apoyo_Academico!$A$1:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Docencia_Directa!$A$1:$Q$90</definedName>
@@ -30,12 +27,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Formacion_Complementaria!$1:$1</definedName>
     <definedName name="total_asignaturas">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="153">
   <si>
     <t>ENTIDAD ACADEMICA</t>
   </si>
@@ -458,6 +455,42 @@
   </si>
   <si>
     <t>0339</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE MATEMÁTICAS</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN COMPUTACIÓN</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE FÍSICA Y QUÍMICA</t>
+  </si>
+  <si>
+    <t>ASIGNATURAS SOCIOHUMANÍSTICAS</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE CIENCIAS APLICADAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGENIERÍA EN SISTEMAS BIOMÉDICOS </t>
+  </si>
+  <si>
+    <t>MATERIALES Y MANUFACTURA</t>
+  </si>
+  <si>
+    <t>INGENIERÍA DE DISEÑO</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE  CIENCIAS APLICADAS</t>
+  </si>
+  <si>
+    <t>INGENIERÍA MECATRÓNICA</t>
+  </si>
+  <si>
+    <t>INGENIERÍA INDUSTRIAL</t>
   </si>
 </sst>
 </file>
@@ -507,7 +540,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -721,12 +754,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -827,6 +884,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,23 +914,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="APOYO ACADEMICO"/>
-      <sheetName val="FORM COMP"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1147,30 +1201,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q139"/>
+  <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="245" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:IV90"/>
+    <sheetView tabSelected="1" topLeftCell="H73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R87" sqref="R87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="56.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" style="44" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="47.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="44" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="8.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="44" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="44" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="43" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>97</v>
       </c>
@@ -1222,8 +1279,11 @@
       <c r="Q1" s="41" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35">
         <v>135</v>
       </c>
@@ -1275,8 +1335,11 @@
       <c r="Q2" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>135</v>
       </c>
@@ -1328,8 +1391,11 @@
       <c r="Q3" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35">
         <v>135</v>
       </c>
@@ -1381,8 +1447,11 @@
       <c r="Q4" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>135</v>
       </c>
@@ -1434,8 +1503,11 @@
       <c r="Q5" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <v>135</v>
       </c>
@@ -1487,8 +1559,11 @@
       <c r="Q6" s="33" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>135</v>
       </c>
@@ -1540,8 +1615,11 @@
       <c r="Q7" s="33" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
         <v>135</v>
       </c>
@@ -1593,8 +1671,11 @@
       <c r="Q8" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>135</v>
       </c>
@@ -1646,8 +1727,11 @@
       <c r="Q9" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>135</v>
       </c>
@@ -1699,8 +1783,11 @@
       <c r="Q10" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>135</v>
       </c>
@@ -1752,8 +1839,11 @@
       <c r="Q11" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R11" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>135</v>
       </c>
@@ -1805,8 +1895,11 @@
       <c r="Q12" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>135</v>
       </c>
@@ -1858,8 +1951,11 @@
       <c r="Q13" s="33" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>135</v>
       </c>
@@ -1911,8 +2007,11 @@
       <c r="Q14" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R14" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>135</v>
       </c>
@@ -1964,8 +2063,11 @@
       <c r="Q15" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>135</v>
       </c>
@@ -2017,8 +2119,11 @@
       <c r="Q16" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>135</v>
       </c>
@@ -2070,8 +2175,11 @@
       <c r="Q17" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R17" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>135</v>
       </c>
@@ -2123,8 +2231,11 @@
       <c r="Q18" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>135</v>
       </c>
@@ -2176,8 +2287,11 @@
       <c r="Q19" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35">
         <v>135</v>
       </c>
@@ -2229,8 +2343,11 @@
       <c r="Q20" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <v>135</v>
       </c>
@@ -2282,8 +2399,11 @@
       <c r="Q21" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35">
         <v>135</v>
       </c>
@@ -2335,8 +2455,11 @@
       <c r="Q22" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>135</v>
       </c>
@@ -2388,8 +2511,11 @@
       <c r="Q23" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35">
         <v>135</v>
       </c>
@@ -2441,8 +2567,11 @@
       <c r="Q24" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>135</v>
       </c>
@@ -2494,8 +2623,11 @@
       <c r="Q25" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35">
         <v>135</v>
       </c>
@@ -2547,8 +2679,11 @@
       <c r="Q26" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>135</v>
       </c>
@@ -2600,8 +2735,11 @@
       <c r="Q27" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35">
         <v>135</v>
       </c>
@@ -2653,8 +2791,11 @@
       <c r="Q28" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <v>135</v>
       </c>
@@ -2706,8 +2847,11 @@
       <c r="Q29" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35">
         <v>135</v>
       </c>
@@ -2759,8 +2903,11 @@
       <c r="Q30" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>135</v>
       </c>
@@ -2812,8 +2959,11 @@
       <c r="Q31" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35">
         <v>135</v>
       </c>
@@ -2865,8 +3015,11 @@
       <c r="Q32" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R32" s="32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <v>135</v>
       </c>
@@ -2918,8 +3071,11 @@
       <c r="Q33" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R33" s="32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35">
         <v>135</v>
       </c>
@@ -2971,8 +3127,11 @@
       <c r="Q34" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>135</v>
       </c>
@@ -3024,8 +3183,11 @@
       <c r="Q35" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R35" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35">
         <v>135</v>
       </c>
@@ -3077,8 +3239,11 @@
       <c r="Q36" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R36" s="32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35">
         <v>135</v>
       </c>
@@ -3130,8 +3295,11 @@
       <c r="Q37" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R37" s="32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35">
         <v>135</v>
       </c>
@@ -3183,8 +3351,11 @@
       <c r="Q38" s="33" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R38" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>135</v>
       </c>
@@ -3236,8 +3407,11 @@
       <c r="Q39" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35">
         <v>135</v>
       </c>
@@ -3289,8 +3463,11 @@
       <c r="Q40" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R40" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35">
         <v>135</v>
       </c>
@@ -3342,8 +3519,11 @@
       <c r="Q41" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R41" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="35">
         <v>135</v>
       </c>
@@ -3395,8 +3575,11 @@
       <c r="Q42" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <v>135</v>
       </c>
@@ -3448,8 +3631,11 @@
       <c r="Q43" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R43" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>135</v>
       </c>
@@ -3501,8 +3687,11 @@
       <c r="Q44" s="33" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R44" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>135</v>
       </c>
@@ -3554,8 +3743,11 @@
       <c r="Q45" s="33" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R45" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="35">
         <v>135</v>
       </c>
@@ -3607,8 +3799,11 @@
       <c r="Q46" s="33" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R46" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>135</v>
       </c>
@@ -3660,8 +3855,11 @@
       <c r="Q47" s="33" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R47" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="35">
         <v>135</v>
       </c>
@@ -3713,8 +3911,11 @@
       <c r="Q48" s="33" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R48" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>135</v>
       </c>
@@ -3766,8 +3967,11 @@
       <c r="Q49" s="33" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R49" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35">
         <v>135</v>
       </c>
@@ -3819,8 +4023,11 @@
       <c r="Q50" s="33" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R50" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>135</v>
       </c>
@@ -3872,8 +4079,11 @@
       <c r="Q51" s="33" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R51" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35">
         <v>135</v>
       </c>
@@ -3925,8 +4135,11 @@
       <c r="Q52" s="33" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R52" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35">
         <v>135</v>
       </c>
@@ -3978,8 +4191,11 @@
       <c r="Q53" s="33" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R53" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="35">
         <v>135</v>
       </c>
@@ -4031,8 +4247,11 @@
       <c r="Q54" s="33" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R54" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="35">
         <v>135</v>
       </c>
@@ -4084,8 +4303,11 @@
       <c r="Q55" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R55" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="35">
         <v>135</v>
       </c>
@@ -4137,8 +4359,11 @@
       <c r="Q56" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R56" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>135</v>
       </c>
@@ -4190,8 +4415,11 @@
       <c r="Q57" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R57" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35">
         <v>135</v>
       </c>
@@ -4243,8 +4471,11 @@
       <c r="Q58" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R58" s="32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="35">
         <v>135</v>
       </c>
@@ -4296,8 +4527,11 @@
       <c r="Q59" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R59" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="35">
         <v>135</v>
       </c>
@@ -4349,8 +4583,11 @@
       <c r="Q60" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R60" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="35">
         <v>135</v>
       </c>
@@ -4402,8 +4639,11 @@
       <c r="Q61" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R61" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="35">
         <v>135</v>
       </c>
@@ -4455,8 +4695,11 @@
       <c r="Q62" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R62" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="35">
         <v>135</v>
       </c>
@@ -4508,8 +4751,11 @@
       <c r="Q63" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R63" s="32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="35">
         <v>135</v>
       </c>
@@ -4561,8 +4807,11 @@
       <c r="Q64" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R64" s="32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="35">
         <v>135</v>
       </c>
@@ -4614,8 +4863,11 @@
       <c r="Q65" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R65" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="35">
         <v>135</v>
       </c>
@@ -4667,8 +4919,11 @@
       <c r="Q66" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R66" s="32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="35">
         <v>135</v>
       </c>
@@ -4720,8 +4975,11 @@
       <c r="Q67" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R67" s="32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="35">
         <v>135</v>
       </c>
@@ -4773,8 +5031,11 @@
       <c r="Q68" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R68" s="32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="35">
         <v>135</v>
       </c>
@@ -4826,8 +5087,11 @@
       <c r="Q69" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R69" s="32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="35">
         <v>135</v>
       </c>
@@ -4879,8 +5143,11 @@
       <c r="Q70" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R70" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="35">
         <v>135</v>
       </c>
@@ -4932,8 +5199,11 @@
       <c r="Q71" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R71" s="32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="35">
         <v>135</v>
       </c>
@@ -4985,8 +5255,11 @@
       <c r="Q72" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R72" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="35">
         <v>135</v>
       </c>
@@ -5038,8 +5311,11 @@
       <c r="Q73" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R73" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="35">
         <v>135</v>
       </c>
@@ -5091,8 +5367,11 @@
       <c r="Q74" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R74" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="35">
         <v>135</v>
       </c>
@@ -5144,8 +5423,11 @@
       <c r="Q75" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R75" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="35">
         <v>135</v>
       </c>
@@ -5197,8 +5479,11 @@
       <c r="Q76" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R76" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="35">
         <v>135</v>
       </c>
@@ -5250,8 +5535,11 @@
       <c r="Q77" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R77" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="35">
         <v>135</v>
       </c>
@@ -5303,8 +5591,11 @@
       <c r="Q78" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R78" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="35">
         <v>135</v>
       </c>
@@ -5356,8 +5647,11 @@
       <c r="Q79" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R79" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="35" t="s">
         <v>131</v>
       </c>
@@ -5409,8 +5703,9 @@
       <c r="Q80" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R80" s="32"/>
+    </row>
+    <row r="81" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="35" t="s">
         <v>131</v>
       </c>
@@ -5462,8 +5757,9 @@
       <c r="Q81" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R81" s="32"/>
+    </row>
+    <row r="82" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="35" t="s">
         <v>131</v>
       </c>
@@ -5515,8 +5811,9 @@
       <c r="Q82" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R82" s="32"/>
+    </row>
+    <row r="83" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="35" t="s">
         <v>131</v>
       </c>
@@ -5568,8 +5865,9 @@
       <c r="Q83" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R83" s="32"/>
+    </row>
+    <row r="84" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="35" t="s">
         <v>131</v>
       </c>
@@ -5621,8 +5919,9 @@
       <c r="Q84" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R84" s="32"/>
+    </row>
+    <row r="85" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="35" t="s">
         <v>131</v>
       </c>
@@ -5674,8 +5973,9 @@
       <c r="Q85" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R85" s="32"/>
+    </row>
+    <row r="86" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="35" t="s">
         <v>131</v>
       </c>
@@ -5727,8 +6027,9 @@
       <c r="Q86" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R86" s="32"/>
+    </row>
+    <row r="87" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="35" t="s">
         <v>131</v>
       </c>
@@ -5780,8 +6081,9 @@
       <c r="Q87" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R87" s="32"/>
+    </row>
+    <row r="88" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="35" t="s">
         <v>131</v>
       </c>
@@ -5833,8 +6135,9 @@
       <c r="Q88" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R88" s="32"/>
+    </row>
+    <row r="89" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="35" t="s">
         <v>131</v>
       </c>
@@ -5886,8 +6189,9 @@
       <c r="Q89" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R89" s="32"/>
+    </row>
+    <row r="90" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="35" t="s">
         <v>131</v>
       </c>
@@ -5939,937 +6243,1012 @@
       <c r="Q90" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R90" s="32"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="31"/>
       <c r="B91" s="31"/>
       <c r="C91" s="43"/>
       <c r="D91" s="31"/>
       <c r="E91" s="31"/>
       <c r="F91" s="31"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="43"/>
-      <c r="J91" s="31"/>
-      <c r="K91" s="31"/>
-      <c r="L91" s="31"/>
-      <c r="M91" s="31"/>
-      <c r="N91" s="43"/>
-      <c r="O91" s="43"/>
-      <c r="P91" s="31"/>
-      <c r="Q91" s="31"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G91" s="46"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="47"/>
+      <c r="L91" s="47"/>
+      <c r="M91" s="47"/>
+      <c r="N91" s="48"/>
+      <c r="O91" s="48"/>
+      <c r="P91" s="47"/>
+      <c r="Q91" s="47"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="31"/>
       <c r="B92" s="31"/>
       <c r="C92" s="43"/>
       <c r="D92" s="31"/>
       <c r="E92" s="31"/>
       <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="31"/>
-      <c r="K92" s="31"/>
-      <c r="L92" s="31"/>
-      <c r="M92" s="31"/>
-      <c r="N92" s="43"/>
-      <c r="O92" s="43"/>
-      <c r="P92" s="31"/>
-      <c r="Q92" s="31"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G92" s="46"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="50"/>
+      <c r="J92" s="49"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="49"/>
+      <c r="N92" s="50"/>
+      <c r="O92" s="50"/>
+      <c r="P92" s="49"/>
+      <c r="Q92" s="49"/>
+      <c r="R92" s="49"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="31"/>
       <c r="B93" s="31"/>
       <c r="C93" s="43"/>
       <c r="D93" s="31"/>
       <c r="E93" s="31"/>
       <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="43"/>
-      <c r="J93" s="31"/>
-      <c r="K93" s="31"/>
-      <c r="L93" s="31"/>
-      <c r="M93" s="31"/>
-      <c r="N93" s="43"/>
-      <c r="O93" s="43"/>
-      <c r="P93" s="31"/>
-      <c r="Q93" s="31"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G93" s="46"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="50"/>
+      <c r="J93" s="49"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="49"/>
+      <c r="N93" s="50"/>
+      <c r="O93" s="50"/>
+      <c r="P93" s="49"/>
+      <c r="Q93" s="49"/>
+      <c r="R93" s="49"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="31"/>
       <c r="B94" s="31"/>
       <c r="C94" s="43"/>
       <c r="D94" s="31"/>
       <c r="E94" s="31"/>
       <c r="F94" s="31"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="43"/>
-      <c r="J94" s="31"/>
-      <c r="K94" s="31"/>
-      <c r="L94" s="31"/>
-      <c r="M94" s="31"/>
-      <c r="N94" s="43"/>
-      <c r="O94" s="43"/>
-      <c r="P94" s="31"/>
-      <c r="Q94" s="31"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G94" s="46"/>
+      <c r="H94" s="49"/>
+      <c r="I94" s="50"/>
+      <c r="J94" s="49"/>
+      <c r="K94" s="49"/>
+      <c r="L94" s="49"/>
+      <c r="M94" s="49"/>
+      <c r="N94" s="50"/>
+      <c r="O94" s="50"/>
+      <c r="P94" s="49"/>
+      <c r="Q94" s="49"/>
+      <c r="R94" s="49"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="31"/>
       <c r="B95" s="31"/>
       <c r="C95" s="43"/>
       <c r="D95" s="31"/>
       <c r="E95" s="31"/>
       <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="31"/>
-      <c r="K95" s="31"/>
-      <c r="L95" s="31"/>
-      <c r="M95" s="31"/>
-      <c r="N95" s="43"/>
-      <c r="O95" s="43"/>
-      <c r="P95" s="31"/>
-      <c r="Q95" s="31"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G95" s="46"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="50"/>
+      <c r="J95" s="49"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="49"/>
+      <c r="M95" s="49"/>
+      <c r="N95" s="50"/>
+      <c r="O95" s="50"/>
+      <c r="P95" s="49"/>
+      <c r="Q95" s="49"/>
+      <c r="R95" s="49"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="31"/>
       <c r="B96" s="31"/>
       <c r="C96" s="43"/>
       <c r="D96" s="31"/>
       <c r="E96" s="31"/>
       <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="43"/>
-      <c r="J96" s="31"/>
-      <c r="K96" s="31"/>
-      <c r="L96" s="31"/>
-      <c r="M96" s="31"/>
-      <c r="N96" s="43"/>
-      <c r="O96" s="43"/>
-      <c r="P96" s="31"/>
-      <c r="Q96" s="31"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G96" s="46"/>
+      <c r="H96" s="49"/>
+      <c r="I96" s="50"/>
+      <c r="J96" s="49"/>
+      <c r="K96" s="49"/>
+      <c r="L96" s="49"/>
+      <c r="M96" s="49"/>
+      <c r="N96" s="50"/>
+      <c r="O96" s="50"/>
+      <c r="P96" s="49"/>
+      <c r="Q96" s="49"/>
+      <c r="R96" s="49"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="31"/>
       <c r="B97" s="31"/>
       <c r="C97" s="43"/>
       <c r="D97" s="31"/>
       <c r="E97" s="31"/>
       <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="43"/>
-      <c r="J97" s="31"/>
-      <c r="K97" s="31"/>
-      <c r="L97" s="31"/>
-      <c r="M97" s="31"/>
-      <c r="N97" s="43"/>
-      <c r="O97" s="43"/>
-      <c r="P97" s="31"/>
-      <c r="Q97" s="31"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G97" s="46"/>
+      <c r="H97" s="49"/>
+      <c r="I97" s="50"/>
+      <c r="J97" s="49"/>
+      <c r="K97" s="49"/>
+      <c r="L97" s="49"/>
+      <c r="M97" s="49"/>
+      <c r="N97" s="50"/>
+      <c r="O97" s="50"/>
+      <c r="P97" s="49"/>
+      <c r="Q97" s="49"/>
+      <c r="R97" s="49"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="31"/>
       <c r="B98" s="31"/>
       <c r="C98" s="43"/>
       <c r="D98" s="31"/>
       <c r="E98" s="31"/>
       <c r="F98" s="31"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="43"/>
-      <c r="J98" s="31"/>
-      <c r="K98" s="31"/>
-      <c r="L98" s="31"/>
-      <c r="M98" s="31"/>
-      <c r="N98" s="43"/>
-      <c r="O98" s="43"/>
-      <c r="P98" s="31"/>
-      <c r="Q98" s="31"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G98" s="46"/>
+      <c r="H98" s="49"/>
+      <c r="I98" s="50"/>
+      <c r="J98" s="49"/>
+      <c r="K98" s="49"/>
+      <c r="L98" s="49"/>
+      <c r="M98" s="49"/>
+      <c r="N98" s="50"/>
+      <c r="O98" s="50"/>
+      <c r="P98" s="49"/>
+      <c r="Q98" s="49"/>
+      <c r="R98" s="49"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="31"/>
       <c r="B99" s="31"/>
       <c r="C99" s="43"/>
       <c r="D99" s="31"/>
       <c r="E99" s="31"/>
       <c r="F99" s="31"/>
-      <c r="G99" s="31"/>
-      <c r="H99" s="31"/>
-      <c r="I99" s="43"/>
-      <c r="J99" s="31"/>
-      <c r="K99" s="31"/>
-      <c r="L99" s="31"/>
-      <c r="M99" s="31"/>
-      <c r="N99" s="43"/>
-      <c r="O99" s="43"/>
-      <c r="P99" s="31"/>
-      <c r="Q99" s="31"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G99" s="46"/>
+      <c r="H99" s="49"/>
+      <c r="I99" s="50"/>
+      <c r="J99" s="49"/>
+      <c r="K99" s="49"/>
+      <c r="L99" s="49"/>
+      <c r="M99" s="49"/>
+      <c r="N99" s="50"/>
+      <c r="O99" s="50"/>
+      <c r="P99" s="49"/>
+      <c r="Q99" s="49"/>
+      <c r="R99" s="49"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="31"/>
       <c r="B100" s="31"/>
       <c r="C100" s="43"/>
       <c r="D100" s="31"/>
       <c r="E100" s="31"/>
       <c r="F100" s="31"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="43"/>
-      <c r="J100" s="31"/>
-      <c r="K100" s="31"/>
-      <c r="L100" s="31"/>
-      <c r="M100" s="31"/>
-      <c r="N100" s="43"/>
-      <c r="O100" s="43"/>
-      <c r="P100" s="31"/>
-      <c r="Q100" s="31"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G100" s="46"/>
+      <c r="H100" s="49"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="49"/>
+      <c r="K100" s="49"/>
+      <c r="L100" s="49"/>
+      <c r="M100" s="49"/>
+      <c r="N100" s="50"/>
+      <c r="O100" s="50"/>
+      <c r="P100" s="49"/>
+      <c r="Q100" s="49"/>
+      <c r="R100" s="49"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="31"/>
       <c r="B101" s="31"/>
       <c r="C101" s="43"/>
       <c r="D101" s="31"/>
       <c r="E101" s="31"/>
       <c r="F101" s="31"/>
-      <c r="G101" s="31"/>
-      <c r="H101" s="31"/>
-      <c r="I101" s="43"/>
-      <c r="J101" s="31"/>
-      <c r="K101" s="31"/>
-      <c r="L101" s="31"/>
-      <c r="M101" s="31"/>
-      <c r="N101" s="43"/>
-      <c r="O101" s="43"/>
-      <c r="P101" s="31"/>
-      <c r="Q101" s="31"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G101" s="46"/>
+      <c r="H101" s="49"/>
+      <c r="I101" s="50"/>
+      <c r="J101" s="49"/>
+      <c r="K101" s="49"/>
+      <c r="L101" s="49"/>
+      <c r="M101" s="49"/>
+      <c r="N101" s="50"/>
+      <c r="O101" s="50"/>
+      <c r="P101" s="49"/>
+      <c r="Q101" s="49"/>
+      <c r="R101" s="49"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="31"/>
       <c r="B102" s="31"/>
       <c r="C102" s="43"/>
       <c r="D102" s="31"/>
       <c r="E102" s="31"/>
       <c r="F102" s="31"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="31"/>
-      <c r="I102" s="43"/>
-      <c r="J102" s="31"/>
-      <c r="K102" s="31"/>
-      <c r="L102" s="31"/>
-      <c r="M102" s="31"/>
-      <c r="N102" s="43"/>
-      <c r="O102" s="43"/>
-      <c r="P102" s="31"/>
-      <c r="Q102" s="31"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G102" s="46"/>
+      <c r="H102" s="49"/>
+      <c r="I102" s="50"/>
+      <c r="J102" s="49"/>
+      <c r="K102" s="49"/>
+      <c r="L102" s="49"/>
+      <c r="M102" s="49"/>
+      <c r="N102" s="50"/>
+      <c r="O102" s="50"/>
+      <c r="P102" s="49"/>
+      <c r="Q102" s="49"/>
+      <c r="R102" s="49"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="31"/>
       <c r="B103" s="31"/>
       <c r="C103" s="43"/>
       <c r="D103" s="31"/>
       <c r="E103" s="31"/>
       <c r="F103" s="31"/>
-      <c r="G103" s="31"/>
-      <c r="H103" s="31"/>
-      <c r="I103" s="43"/>
-      <c r="J103" s="31"/>
-      <c r="K103" s="31"/>
-      <c r="L103" s="31"/>
-      <c r="M103" s="31"/>
-      <c r="N103" s="43"/>
-      <c r="O103" s="43"/>
-      <c r="P103" s="31"/>
-      <c r="Q103" s="31"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G103" s="46"/>
+      <c r="H103" s="49"/>
+      <c r="I103" s="50"/>
+      <c r="J103" s="49"/>
+      <c r="K103" s="49"/>
+      <c r="L103" s="49"/>
+      <c r="M103" s="49"/>
+      <c r="N103" s="50"/>
+      <c r="O103" s="50"/>
+      <c r="P103" s="49"/>
+      <c r="Q103" s="49"/>
+      <c r="R103" s="49"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="31"/>
       <c r="B104" s="31"/>
       <c r="C104" s="43"/>
       <c r="D104" s="31"/>
       <c r="E104" s="31"/>
       <c r="F104" s="31"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="31"/>
-      <c r="I104" s="43"/>
-      <c r="J104" s="31"/>
-      <c r="K104" s="31"/>
-      <c r="L104" s="31"/>
-      <c r="M104" s="31"/>
-      <c r="N104" s="43"/>
-      <c r="O104" s="43"/>
-      <c r="P104" s="31"/>
-      <c r="Q104" s="31"/>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G104" s="46"/>
+      <c r="H104" s="49"/>
+      <c r="I104" s="50"/>
+      <c r="J104" s="49"/>
+      <c r="K104" s="49"/>
+      <c r="L104" s="49"/>
+      <c r="M104" s="49"/>
+      <c r="N104" s="50"/>
+      <c r="O104" s="50"/>
+      <c r="P104" s="49"/>
+      <c r="Q104" s="49"/>
+      <c r="R104" s="49"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="31"/>
       <c r="B105" s="31"/>
       <c r="C105" s="43"/>
       <c r="D105" s="31"/>
       <c r="E105" s="31"/>
       <c r="F105" s="31"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="31"/>
-      <c r="I105" s="43"/>
-      <c r="J105" s="31"/>
-      <c r="K105" s="31"/>
-      <c r="L105" s="31"/>
-      <c r="M105" s="31"/>
-      <c r="N105" s="43"/>
-      <c r="O105" s="43"/>
-      <c r="P105" s="31"/>
-      <c r="Q105" s="31"/>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G105" s="46"/>
+      <c r="H105" s="49"/>
+      <c r="I105" s="50"/>
+      <c r="J105" s="49"/>
+      <c r="K105" s="49"/>
+      <c r="L105" s="49"/>
+      <c r="M105" s="49"/>
+      <c r="N105" s="50"/>
+      <c r="O105" s="50"/>
+      <c r="P105" s="49"/>
+      <c r="Q105" s="49"/>
+      <c r="R105" s="49"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="31"/>
       <c r="B106" s="31"/>
       <c r="C106" s="43"/>
       <c r="D106" s="31"/>
       <c r="E106" s="31"/>
       <c r="F106" s="31"/>
-      <c r="G106" s="31"/>
-      <c r="H106" s="31"/>
-      <c r="I106" s="43"/>
-      <c r="J106" s="31"/>
-      <c r="K106" s="31"/>
-      <c r="L106" s="31"/>
-      <c r="M106" s="31"/>
-      <c r="N106" s="43"/>
-      <c r="O106" s="43"/>
-      <c r="P106" s="31"/>
-      <c r="Q106" s="31"/>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G106" s="46"/>
+      <c r="H106" s="49"/>
+      <c r="I106" s="50"/>
+      <c r="J106" s="49"/>
+      <c r="K106" s="49"/>
+      <c r="L106" s="49"/>
+      <c r="M106" s="49"/>
+      <c r="N106" s="50"/>
+      <c r="O106" s="50"/>
+      <c r="P106" s="49"/>
+      <c r="Q106" s="49"/>
+      <c r="R106" s="49"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="31"/>
       <c r="B107" s="31"/>
       <c r="C107" s="43"/>
       <c r="D107" s="31"/>
       <c r="E107" s="31"/>
       <c r="F107" s="31"/>
-      <c r="G107" s="31"/>
-      <c r="H107" s="31"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="31"/>
-      <c r="K107" s="31"/>
-      <c r="L107" s="31"/>
-      <c r="M107" s="31"/>
-      <c r="N107" s="43"/>
-      <c r="O107" s="43"/>
-      <c r="P107" s="31"/>
-      <c r="Q107" s="31"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G107" s="46"/>
+      <c r="H107" s="49"/>
+      <c r="I107" s="50"/>
+      <c r="J107" s="49"/>
+      <c r="K107" s="49"/>
+      <c r="L107" s="49"/>
+      <c r="M107" s="49"/>
+      <c r="N107" s="50"/>
+      <c r="O107" s="50"/>
+      <c r="P107" s="49"/>
+      <c r="Q107" s="49"/>
+      <c r="R107" s="49"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="31"/>
       <c r="B108" s="31"/>
       <c r="C108" s="43"/>
       <c r="D108" s="31"/>
       <c r="E108" s="31"/>
       <c r="F108" s="31"/>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="43"/>
-      <c r="J108" s="31"/>
-      <c r="K108" s="31"/>
-      <c r="L108" s="31"/>
-      <c r="M108" s="31"/>
-      <c r="N108" s="43"/>
-      <c r="O108" s="43"/>
-      <c r="P108" s="31"/>
-      <c r="Q108" s="31"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G108" s="46"/>
+      <c r="H108" s="49"/>
+      <c r="I108" s="50"/>
+      <c r="J108" s="49"/>
+      <c r="K108" s="49"/>
+      <c r="L108" s="49"/>
+      <c r="M108" s="49"/>
+      <c r="N108" s="50"/>
+      <c r="O108" s="50"/>
+      <c r="P108" s="49"/>
+      <c r="Q108" s="49"/>
+      <c r="R108" s="49"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="31"/>
       <c r="B109" s="31"/>
       <c r="C109" s="43"/>
       <c r="D109" s="31"/>
       <c r="E109" s="31"/>
       <c r="F109" s="31"/>
-      <c r="G109" s="31"/>
-      <c r="H109" s="31"/>
-      <c r="I109" s="43"/>
-      <c r="J109" s="31"/>
-      <c r="K109" s="31"/>
-      <c r="L109" s="31"/>
-      <c r="M109" s="31"/>
-      <c r="N109" s="43"/>
-      <c r="O109" s="43"/>
-      <c r="P109" s="31"/>
-      <c r="Q109" s="31"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G109" s="46"/>
+      <c r="H109" s="49"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="49"/>
+      <c r="K109" s="49"/>
+      <c r="L109" s="49"/>
+      <c r="M109" s="49"/>
+      <c r="N109" s="50"/>
+      <c r="O109" s="50"/>
+      <c r="P109" s="49"/>
+      <c r="Q109" s="49"/>
+      <c r="R109" s="49"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="31"/>
       <c r="B110" s="31"/>
       <c r="C110" s="43"/>
       <c r="D110" s="31"/>
       <c r="E110" s="31"/>
       <c r="F110" s="31"/>
-      <c r="G110" s="31"/>
-      <c r="H110" s="31"/>
-      <c r="I110" s="43"/>
-      <c r="J110" s="31"/>
-      <c r="K110" s="31"/>
-      <c r="L110" s="31"/>
-      <c r="M110" s="31"/>
-      <c r="N110" s="43"/>
-      <c r="O110" s="43"/>
-      <c r="P110" s="31"/>
-      <c r="Q110" s="31"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G110" s="46"/>
+      <c r="H110" s="49"/>
+      <c r="I110" s="50"/>
+      <c r="J110" s="49"/>
+      <c r="K110" s="49"/>
+      <c r="L110" s="49"/>
+      <c r="M110" s="49"/>
+      <c r="N110" s="50"/>
+      <c r="O110" s="50"/>
+      <c r="P110" s="49"/>
+      <c r="Q110" s="49"/>
+      <c r="R110" s="49"/>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="31"/>
       <c r="B111" s="31"/>
       <c r="C111" s="43"/>
       <c r="D111" s="31"/>
       <c r="E111" s="31"/>
       <c r="F111" s="31"/>
-      <c r="G111" s="31"/>
-      <c r="H111" s="31"/>
-      <c r="I111" s="43"/>
-      <c r="J111" s="31"/>
-      <c r="K111" s="31"/>
-      <c r="L111" s="31"/>
-      <c r="M111" s="31"/>
-      <c r="N111" s="43"/>
-      <c r="O111" s="43"/>
-      <c r="P111" s="31"/>
-      <c r="Q111" s="31"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G111" s="46"/>
+      <c r="H111" s="49"/>
+      <c r="I111" s="50"/>
+      <c r="J111" s="49"/>
+      <c r="K111" s="49"/>
+      <c r="L111" s="49"/>
+      <c r="M111" s="49"/>
+      <c r="N111" s="50"/>
+      <c r="O111" s="50"/>
+      <c r="P111" s="49"/>
+      <c r="Q111" s="49"/>
+      <c r="R111" s="49"/>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="31"/>
       <c r="B112" s="31"/>
       <c r="C112" s="43"/>
       <c r="D112" s="31"/>
       <c r="E112" s="31"/>
       <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="43"/>
-      <c r="J112" s="31"/>
-      <c r="K112" s="31"/>
-      <c r="L112" s="31"/>
-      <c r="M112" s="31"/>
-      <c r="N112" s="43"/>
-      <c r="O112" s="43"/>
-      <c r="P112" s="31"/>
-      <c r="Q112" s="31"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G112" s="46"/>
+      <c r="H112" s="49"/>
+      <c r="I112" s="50"/>
+      <c r="J112" s="49"/>
+      <c r="K112" s="49"/>
+      <c r="L112" s="49"/>
+      <c r="M112" s="49"/>
+      <c r="N112" s="50"/>
+      <c r="O112" s="50"/>
+      <c r="P112" s="49"/>
+      <c r="Q112" s="49"/>
+      <c r="R112" s="49"/>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="31"/>
       <c r="B113" s="31"/>
       <c r="C113" s="43"/>
       <c r="D113" s="31"/>
       <c r="E113" s="31"/>
       <c r="F113" s="31"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="43"/>
-      <c r="J113" s="31"/>
-      <c r="K113" s="31"/>
-      <c r="L113" s="31"/>
-      <c r="M113" s="31"/>
-      <c r="N113" s="43"/>
-      <c r="O113" s="43"/>
-      <c r="P113" s="31"/>
-      <c r="Q113" s="31"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G113" s="46"/>
+      <c r="H113" s="49"/>
+      <c r="I113" s="50"/>
+      <c r="J113" s="49"/>
+      <c r="K113" s="49"/>
+      <c r="L113" s="49"/>
+      <c r="M113" s="49"/>
+      <c r="N113" s="50"/>
+      <c r="O113" s="50"/>
+      <c r="P113" s="49"/>
+      <c r="Q113" s="49"/>
+      <c r="R113" s="49"/>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="31"/>
       <c r="B114" s="31"/>
       <c r="C114" s="43"/>
       <c r="D114" s="31"/>
       <c r="E114" s="31"/>
       <c r="F114" s="31"/>
-      <c r="G114" s="31"/>
-      <c r="H114" s="31"/>
-      <c r="I114" s="43"/>
-      <c r="J114" s="31"/>
-      <c r="K114" s="31"/>
-      <c r="L114" s="31"/>
-      <c r="M114" s="31"/>
-      <c r="N114" s="43"/>
-      <c r="O114" s="43"/>
-      <c r="P114" s="31"/>
-      <c r="Q114" s="31"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G114" s="46"/>
+      <c r="H114" s="49"/>
+      <c r="I114" s="50"/>
+      <c r="J114" s="49"/>
+      <c r="K114" s="49"/>
+      <c r="L114" s="49"/>
+      <c r="M114" s="49"/>
+      <c r="N114" s="50"/>
+      <c r="O114" s="50"/>
+      <c r="P114" s="49"/>
+      <c r="Q114" s="49"/>
+      <c r="R114" s="49"/>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="31"/>
       <c r="B115" s="31"/>
       <c r="C115" s="43"/>
       <c r="D115" s="31"/>
       <c r="E115" s="31"/>
       <c r="F115" s="31"/>
-      <c r="G115" s="31"/>
-      <c r="H115" s="31"/>
-      <c r="I115" s="43"/>
-      <c r="J115" s="31"/>
-      <c r="K115" s="31"/>
-      <c r="L115" s="31"/>
-      <c r="M115" s="31"/>
-      <c r="N115" s="43"/>
-      <c r="O115" s="43"/>
-      <c r="P115" s="31"/>
-      <c r="Q115" s="31"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G115" s="46"/>
+      <c r="H115" s="49"/>
+      <c r="I115" s="50"/>
+      <c r="J115" s="49"/>
+      <c r="K115" s="49"/>
+      <c r="L115" s="49"/>
+      <c r="M115" s="49"/>
+      <c r="N115" s="50"/>
+      <c r="O115" s="50"/>
+      <c r="P115" s="49"/>
+      <c r="Q115" s="49"/>
+      <c r="R115" s="49"/>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="31"/>
       <c r="B116" s="31"/>
       <c r="C116" s="43"/>
       <c r="D116" s="31"/>
       <c r="E116" s="31"/>
       <c r="F116" s="31"/>
-      <c r="G116" s="31"/>
-      <c r="H116" s="31"/>
-      <c r="I116" s="43"/>
-      <c r="J116" s="31"/>
-      <c r="K116" s="31"/>
-      <c r="L116" s="31"/>
-      <c r="M116" s="31"/>
-      <c r="N116" s="43"/>
-      <c r="O116" s="43"/>
-      <c r="P116" s="31"/>
-      <c r="Q116" s="31"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G116" s="46"/>
+      <c r="H116" s="49"/>
+      <c r="I116" s="50"/>
+      <c r="J116" s="49"/>
+      <c r="K116" s="49"/>
+      <c r="L116" s="49"/>
+      <c r="M116" s="49"/>
+      <c r="N116" s="50"/>
+      <c r="O116" s="50"/>
+      <c r="P116" s="49"/>
+      <c r="Q116" s="49"/>
+      <c r="R116" s="49"/>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="31"/>
       <c r="B117" s="31"/>
       <c r="C117" s="43"/>
       <c r="D117" s="31"/>
       <c r="E117" s="31"/>
       <c r="F117" s="31"/>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="43"/>
-      <c r="J117" s="31"/>
-      <c r="K117" s="31"/>
-      <c r="L117" s="31"/>
-      <c r="M117" s="31"/>
-      <c r="N117" s="43"/>
-      <c r="O117" s="43"/>
-      <c r="P117" s="31"/>
-      <c r="Q117" s="31"/>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G117" s="46"/>
+      <c r="H117" s="49"/>
+      <c r="I117" s="50"/>
+      <c r="J117" s="49"/>
+      <c r="K117" s="49"/>
+      <c r="L117" s="49"/>
+      <c r="M117" s="49"/>
+      <c r="N117" s="50"/>
+      <c r="O117" s="50"/>
+      <c r="P117" s="49"/>
+      <c r="Q117" s="49"/>
+      <c r="R117" s="49"/>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="31"/>
       <c r="B118" s="31"/>
       <c r="C118" s="43"/>
       <c r="D118" s="31"/>
       <c r="E118" s="31"/>
       <c r="F118" s="31"/>
-      <c r="G118" s="31"/>
-      <c r="H118" s="31"/>
-      <c r="I118" s="43"/>
-      <c r="J118" s="31"/>
-      <c r="K118" s="31"/>
-      <c r="L118" s="31"/>
-      <c r="M118" s="31"/>
-      <c r="N118" s="43"/>
-      <c r="O118" s="43"/>
-      <c r="P118" s="31"/>
-      <c r="Q118" s="31"/>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G118" s="46"/>
+      <c r="H118" s="49"/>
+      <c r="I118" s="50"/>
+      <c r="J118" s="49"/>
+      <c r="K118" s="49"/>
+      <c r="L118" s="49"/>
+      <c r="M118" s="49"/>
+      <c r="N118" s="50"/>
+      <c r="O118" s="50"/>
+      <c r="P118" s="49"/>
+      <c r="Q118" s="49"/>
+      <c r="R118" s="49"/>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="31"/>
       <c r="B119" s="31"/>
       <c r="C119" s="43"/>
       <c r="D119" s="31"/>
       <c r="E119" s="31"/>
       <c r="F119" s="31"/>
-      <c r="G119" s="31"/>
-      <c r="H119" s="31"/>
-      <c r="I119" s="43"/>
-      <c r="J119" s="31"/>
-      <c r="K119" s="31"/>
-      <c r="L119" s="31"/>
-      <c r="M119" s="31"/>
-      <c r="N119" s="43"/>
-      <c r="O119" s="43"/>
-      <c r="P119" s="31"/>
-      <c r="Q119" s="31"/>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G119" s="46"/>
+      <c r="H119" s="49"/>
+      <c r="I119" s="50"/>
+      <c r="J119" s="49"/>
+      <c r="K119" s="49"/>
+      <c r="L119" s="49"/>
+      <c r="M119" s="49"/>
+      <c r="N119" s="50"/>
+      <c r="O119" s="50"/>
+      <c r="P119" s="49"/>
+      <c r="Q119" s="49"/>
+      <c r="R119" s="49"/>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="31"/>
       <c r="B120" s="31"/>
       <c r="C120" s="43"/>
       <c r="D120" s="31"/>
       <c r="E120" s="31"/>
       <c r="F120" s="31"/>
-      <c r="G120" s="31"/>
-      <c r="H120" s="31"/>
-      <c r="I120" s="43"/>
-      <c r="J120" s="31"/>
-      <c r="K120" s="31"/>
-      <c r="L120" s="31"/>
-      <c r="M120" s="31"/>
-      <c r="N120" s="43"/>
-      <c r="O120" s="43"/>
-      <c r="P120" s="31"/>
-      <c r="Q120" s="31"/>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G120" s="46"/>
+      <c r="H120" s="49"/>
+      <c r="I120" s="50"/>
+      <c r="J120" s="49"/>
+      <c r="K120" s="49"/>
+      <c r="L120" s="49"/>
+      <c r="M120" s="49"/>
+      <c r="N120" s="50"/>
+      <c r="O120" s="50"/>
+      <c r="P120" s="49"/>
+      <c r="Q120" s="49"/>
+      <c r="R120" s="49"/>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="31"/>
       <c r="B121" s="31"/>
       <c r="C121" s="43"/>
       <c r="D121" s="31"/>
       <c r="E121" s="31"/>
       <c r="F121" s="31"/>
-      <c r="G121" s="31"/>
-      <c r="H121" s="31"/>
-      <c r="I121" s="43"/>
-      <c r="J121" s="31"/>
-      <c r="K121" s="31"/>
-      <c r="L121" s="31"/>
-      <c r="M121" s="31"/>
-      <c r="N121" s="43"/>
-      <c r="O121" s="43"/>
-      <c r="P121" s="31"/>
-      <c r="Q121" s="31"/>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G121" s="46"/>
+      <c r="H121" s="49"/>
+      <c r="I121" s="50"/>
+      <c r="J121" s="49"/>
+      <c r="K121" s="49"/>
+      <c r="L121" s="49"/>
+      <c r="M121" s="49"/>
+      <c r="N121" s="50"/>
+      <c r="O121" s="50"/>
+      <c r="P121" s="49"/>
+      <c r="Q121" s="49"/>
+      <c r="R121" s="49"/>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="31"/>
       <c r="B122" s="31"/>
       <c r="C122" s="43"/>
       <c r="D122" s="31"/>
       <c r="E122" s="31"/>
       <c r="F122" s="31"/>
-      <c r="G122" s="31"/>
-      <c r="H122" s="31"/>
-      <c r="I122" s="43"/>
-      <c r="J122" s="31"/>
-      <c r="K122" s="31"/>
-      <c r="L122" s="31"/>
-      <c r="M122" s="31"/>
-      <c r="N122" s="43"/>
-      <c r="O122" s="43"/>
-      <c r="P122" s="31"/>
-      <c r="Q122" s="31"/>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G122" s="46"/>
+      <c r="H122" s="49"/>
+      <c r="I122" s="50"/>
+      <c r="J122" s="49"/>
+      <c r="K122" s="49"/>
+      <c r="L122" s="49"/>
+      <c r="M122" s="49"/>
+      <c r="N122" s="50"/>
+      <c r="O122" s="50"/>
+      <c r="P122" s="49"/>
+      <c r="Q122" s="49"/>
+      <c r="R122" s="49"/>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="31"/>
       <c r="B123" s="31"/>
       <c r="C123" s="43"/>
       <c r="D123" s="31"/>
       <c r="E123" s="31"/>
       <c r="F123" s="31"/>
-      <c r="G123" s="31"/>
-      <c r="H123" s="31"/>
-      <c r="I123" s="43"/>
-      <c r="J123" s="31"/>
-      <c r="K123" s="31"/>
-      <c r="L123" s="31"/>
-      <c r="M123" s="31"/>
-      <c r="N123" s="43"/>
-      <c r="O123" s="43"/>
-      <c r="P123" s="31"/>
-      <c r="Q123" s="31"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G123" s="46"/>
+      <c r="H123" s="49"/>
+      <c r="I123" s="50"/>
+      <c r="J123" s="49"/>
+      <c r="K123" s="49"/>
+      <c r="L123" s="49"/>
+      <c r="M123" s="49"/>
+      <c r="N123" s="50"/>
+      <c r="O123" s="50"/>
+      <c r="P123" s="49"/>
+      <c r="Q123" s="49"/>
+      <c r="R123" s="49"/>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="31"/>
       <c r="B124" s="31"/>
       <c r="C124" s="43"/>
       <c r="D124" s="31"/>
       <c r="E124" s="31"/>
       <c r="F124" s="31"/>
-      <c r="G124" s="31"/>
-      <c r="H124" s="31"/>
-      <c r="I124" s="43"/>
-      <c r="J124" s="31"/>
-      <c r="K124" s="31"/>
-      <c r="L124" s="31"/>
-      <c r="M124" s="31"/>
-      <c r="N124" s="43"/>
-      <c r="O124" s="43"/>
-      <c r="P124" s="31"/>
-      <c r="Q124" s="31"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G124" s="46"/>
+      <c r="H124" s="49"/>
+      <c r="I124" s="50"/>
+      <c r="J124" s="49"/>
+      <c r="K124" s="49"/>
+      <c r="L124" s="49"/>
+      <c r="M124" s="49"/>
+      <c r="N124" s="50"/>
+      <c r="O124" s="50"/>
+      <c r="P124" s="49"/>
+      <c r="Q124" s="49"/>
+      <c r="R124" s="49"/>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="31"/>
       <c r="B125" s="31"/>
       <c r="C125" s="43"/>
       <c r="D125" s="31"/>
       <c r="E125" s="31"/>
       <c r="F125" s="31"/>
-      <c r="G125" s="31"/>
-      <c r="H125" s="31"/>
-      <c r="I125" s="43"/>
-      <c r="J125" s="31"/>
-      <c r="K125" s="31"/>
-      <c r="L125" s="31"/>
-      <c r="M125" s="31"/>
-      <c r="N125" s="43"/>
-      <c r="O125" s="43"/>
-      <c r="P125" s="31"/>
-      <c r="Q125" s="31"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G125" s="46"/>
+      <c r="H125" s="49"/>
+      <c r="I125" s="50"/>
+      <c r="J125" s="49"/>
+      <c r="K125" s="49"/>
+      <c r="L125" s="49"/>
+      <c r="M125" s="49"/>
+      <c r="N125" s="50"/>
+      <c r="O125" s="50"/>
+      <c r="P125" s="49"/>
+      <c r="Q125" s="49"/>
+      <c r="R125" s="49"/>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="31"/>
       <c r="B126" s="31"/>
       <c r="C126" s="43"/>
       <c r="D126" s="31"/>
       <c r="E126" s="31"/>
       <c r="F126" s="31"/>
-      <c r="G126" s="31"/>
-      <c r="H126" s="31"/>
-      <c r="I126" s="43"/>
-      <c r="J126" s="31"/>
-      <c r="K126" s="31"/>
-      <c r="L126" s="31"/>
-      <c r="M126" s="31"/>
-      <c r="N126" s="43"/>
-      <c r="O126" s="43"/>
-      <c r="P126" s="31"/>
-      <c r="Q126" s="31"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G126" s="46"/>
+      <c r="H126" s="49"/>
+      <c r="I126" s="50"/>
+      <c r="J126" s="49"/>
+      <c r="K126" s="49"/>
+      <c r="L126" s="49"/>
+      <c r="M126" s="49"/>
+      <c r="N126" s="50"/>
+      <c r="O126" s="50"/>
+      <c r="P126" s="49"/>
+      <c r="Q126" s="49"/>
+      <c r="R126" s="49"/>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="31"/>
       <c r="B127" s="31"/>
       <c r="C127" s="43"/>
       <c r="D127" s="31"/>
       <c r="E127" s="31"/>
       <c r="F127" s="31"/>
-      <c r="G127" s="31"/>
-      <c r="H127" s="31"/>
-      <c r="I127" s="43"/>
-      <c r="J127" s="31"/>
-      <c r="K127" s="31"/>
-      <c r="L127" s="31"/>
-      <c r="M127" s="31"/>
-      <c r="N127" s="43"/>
-      <c r="O127" s="43"/>
-      <c r="P127" s="31"/>
-      <c r="Q127" s="31"/>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G127" s="46"/>
+      <c r="H127" s="49"/>
+      <c r="I127" s="50"/>
+      <c r="J127" s="49"/>
+      <c r="K127" s="49"/>
+      <c r="L127" s="49"/>
+      <c r="M127" s="49"/>
+      <c r="N127" s="50"/>
+      <c r="O127" s="50"/>
+      <c r="P127" s="49"/>
+      <c r="Q127" s="49"/>
+      <c r="R127" s="49"/>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="31"/>
       <c r="B128" s="31"/>
       <c r="C128" s="43"/>
       <c r="D128" s="31"/>
       <c r="E128" s="31"/>
       <c r="F128" s="31"/>
-      <c r="G128" s="31"/>
-      <c r="H128" s="31"/>
-      <c r="I128" s="43"/>
-      <c r="J128" s="31"/>
-      <c r="K128" s="31"/>
-      <c r="L128" s="31"/>
-      <c r="M128" s="31"/>
-      <c r="N128" s="43"/>
-      <c r="O128" s="43"/>
-      <c r="P128" s="31"/>
-      <c r="Q128" s="31"/>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G128" s="46"/>
+      <c r="H128" s="49"/>
+      <c r="I128" s="50"/>
+      <c r="J128" s="49"/>
+      <c r="K128" s="49"/>
+      <c r="L128" s="49"/>
+      <c r="M128" s="49"/>
+      <c r="N128" s="50"/>
+      <c r="O128" s="50"/>
+      <c r="P128" s="49"/>
+      <c r="Q128" s="49"/>
+      <c r="R128" s="49"/>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="31"/>
       <c r="B129" s="31"/>
       <c r="C129" s="43"/>
       <c r="D129" s="31"/>
       <c r="E129" s="31"/>
       <c r="F129" s="31"/>
-      <c r="G129" s="31"/>
-      <c r="H129" s="31"/>
-      <c r="I129" s="43"/>
-      <c r="J129" s="31"/>
-      <c r="K129" s="31"/>
-      <c r="L129" s="31"/>
-      <c r="M129" s="31"/>
-      <c r="N129" s="43"/>
-      <c r="O129" s="43"/>
-      <c r="P129" s="31"/>
-      <c r="Q129" s="31"/>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G129" s="46"/>
+      <c r="H129" s="49"/>
+      <c r="I129" s="50"/>
+      <c r="J129" s="49"/>
+      <c r="K129" s="49"/>
+      <c r="L129" s="49"/>
+      <c r="M129" s="49"/>
+      <c r="N129" s="50"/>
+      <c r="O129" s="50"/>
+      <c r="P129" s="49"/>
+      <c r="Q129" s="49"/>
+      <c r="R129" s="49"/>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="31"/>
       <c r="B130" s="31"/>
       <c r="C130" s="43"/>
       <c r="D130" s="31"/>
       <c r="E130" s="31"/>
       <c r="F130" s="31"/>
-      <c r="G130" s="31"/>
-      <c r="H130" s="31"/>
-      <c r="I130" s="43"/>
-      <c r="J130" s="31"/>
-      <c r="K130" s="31"/>
-      <c r="L130" s="31"/>
-      <c r="M130" s="31"/>
-      <c r="N130" s="43"/>
-      <c r="O130" s="43"/>
-      <c r="P130" s="31"/>
-      <c r="Q130" s="31"/>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G130" s="46"/>
+      <c r="H130" s="49"/>
+      <c r="I130" s="50"/>
+      <c r="J130" s="49"/>
+      <c r="K130" s="49"/>
+      <c r="L130" s="49"/>
+      <c r="M130" s="49"/>
+      <c r="N130" s="50"/>
+      <c r="O130" s="50"/>
+      <c r="P130" s="49"/>
+      <c r="Q130" s="49"/>
+      <c r="R130" s="49"/>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="31"/>
       <c r="B131" s="31"/>
       <c r="C131" s="43"/>
       <c r="D131" s="31"/>
       <c r="E131" s="31"/>
       <c r="F131" s="31"/>
-      <c r="G131" s="31"/>
-      <c r="H131" s="31"/>
-      <c r="I131" s="43"/>
-      <c r="J131" s="31"/>
-      <c r="K131" s="31"/>
-      <c r="L131" s="31"/>
-      <c r="M131" s="31"/>
-      <c r="N131" s="43"/>
-      <c r="O131" s="43"/>
-      <c r="P131" s="31"/>
-      <c r="Q131" s="31"/>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G131" s="46"/>
+      <c r="H131" s="49"/>
+      <c r="I131" s="50"/>
+      <c r="J131" s="49"/>
+      <c r="K131" s="49"/>
+      <c r="L131" s="49"/>
+      <c r="M131" s="49"/>
+      <c r="N131" s="50"/>
+      <c r="O131" s="50"/>
+      <c r="P131" s="49"/>
+      <c r="Q131" s="49"/>
+      <c r="R131" s="49"/>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="31"/>
       <c r="B132" s="31"/>
       <c r="C132" s="43"/>
       <c r="D132" s="31"/>
       <c r="E132" s="31"/>
       <c r="F132" s="31"/>
-      <c r="G132" s="31"/>
-      <c r="H132" s="31"/>
-      <c r="I132" s="43"/>
-      <c r="J132" s="31"/>
-      <c r="K132" s="31"/>
-      <c r="L132" s="31"/>
-      <c r="M132" s="31"/>
-      <c r="N132" s="43"/>
-      <c r="O132" s="43"/>
-      <c r="P132" s="31"/>
-      <c r="Q132" s="31"/>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G132" s="46"/>
+      <c r="H132" s="49"/>
+      <c r="I132" s="50"/>
+      <c r="J132" s="49"/>
+      <c r="K132" s="49"/>
+      <c r="L132" s="49"/>
+      <c r="M132" s="49"/>
+      <c r="N132" s="50"/>
+      <c r="O132" s="50"/>
+      <c r="P132" s="49"/>
+      <c r="Q132" s="49"/>
+      <c r="R132" s="49"/>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="31"/>
       <c r="B133" s="31"/>
       <c r="C133" s="43"/>
       <c r="D133" s="31"/>
       <c r="E133" s="31"/>
       <c r="F133" s="31"/>
-      <c r="G133" s="31"/>
-      <c r="H133" s="31"/>
-      <c r="I133" s="43"/>
-      <c r="J133" s="31"/>
-      <c r="K133" s="31"/>
-      <c r="L133" s="31"/>
-      <c r="M133" s="31"/>
-      <c r="N133" s="43"/>
-      <c r="O133" s="43"/>
-      <c r="P133" s="31"/>
-      <c r="Q133" s="31"/>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G133" s="46"/>
+      <c r="H133" s="49"/>
+      <c r="I133" s="50"/>
+      <c r="J133" s="49"/>
+      <c r="K133" s="49"/>
+      <c r="L133" s="49"/>
+      <c r="M133" s="49"/>
+      <c r="N133" s="50"/>
+      <c r="O133" s="50"/>
+      <c r="P133" s="49"/>
+      <c r="Q133" s="49"/>
+      <c r="R133" s="49"/>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="31"/>
       <c r="B134" s="31"/>
       <c r="C134" s="43"/>
       <c r="D134" s="31"/>
       <c r="E134" s="31"/>
       <c r="F134" s="31"/>
-      <c r="G134" s="31"/>
-      <c r="H134" s="31"/>
-      <c r="I134" s="43"/>
-      <c r="J134" s="31"/>
-      <c r="K134" s="31"/>
-      <c r="L134" s="31"/>
-      <c r="M134" s="31"/>
-      <c r="N134" s="43"/>
-      <c r="O134" s="43"/>
-      <c r="P134" s="31"/>
-      <c r="Q134" s="31"/>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G134" s="46"/>
+      <c r="H134" s="49"/>
+      <c r="I134" s="50"/>
+      <c r="J134" s="49"/>
+      <c r="K134" s="49"/>
+      <c r="L134" s="49"/>
+      <c r="M134" s="49"/>
+      <c r="N134" s="50"/>
+      <c r="O134" s="50"/>
+      <c r="P134" s="49"/>
+      <c r="Q134" s="49"/>
+      <c r="R134" s="49"/>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="31"/>
       <c r="B135" s="31"/>
       <c r="C135" s="43"/>
       <c r="D135" s="31"/>
       <c r="E135" s="31"/>
       <c r="F135" s="31"/>
-      <c r="G135" s="31"/>
-      <c r="H135" s="31"/>
-      <c r="I135" s="43"/>
-      <c r="J135" s="31"/>
-      <c r="K135" s="31"/>
-      <c r="L135" s="31"/>
-      <c r="M135" s="31"/>
-      <c r="N135" s="43"/>
-      <c r="O135" s="43"/>
-      <c r="P135" s="31"/>
-      <c r="Q135" s="31"/>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G135" s="46"/>
+      <c r="H135" s="49"/>
+      <c r="I135" s="50"/>
+      <c r="J135" s="49"/>
+      <c r="K135" s="49"/>
+      <c r="L135" s="49"/>
+      <c r="M135" s="49"/>
+      <c r="N135" s="50"/>
+      <c r="O135" s="50"/>
+      <c r="P135" s="49"/>
+      <c r="Q135" s="49"/>
+      <c r="R135" s="49"/>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="31"/>
       <c r="B136" s="31"/>
       <c r="C136" s="43"/>
       <c r="D136" s="31"/>
       <c r="E136" s="31"/>
       <c r="F136" s="31"/>
-      <c r="G136" s="31"/>
-      <c r="H136" s="31"/>
-      <c r="I136" s="43"/>
-      <c r="J136" s="31"/>
-      <c r="K136" s="31"/>
-      <c r="L136" s="31"/>
-      <c r="M136" s="31"/>
-      <c r="N136" s="43"/>
-      <c r="O136" s="43"/>
-      <c r="P136" s="31"/>
-      <c r="Q136" s="31"/>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G136" s="46"/>
+      <c r="H136" s="49"/>
+      <c r="I136" s="50"/>
+      <c r="J136" s="49"/>
+      <c r="K136" s="49"/>
+      <c r="L136" s="49"/>
+      <c r="M136" s="49"/>
+      <c r="N136" s="50"/>
+      <c r="O136" s="50"/>
+      <c r="P136" s="49"/>
+      <c r="Q136" s="49"/>
+      <c r="R136" s="49"/>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="31"/>
       <c r="B137" s="31"/>
       <c r="C137" s="43"/>
       <c r="D137" s="31"/>
       <c r="E137" s="31"/>
       <c r="F137" s="31"/>
-      <c r="G137" s="31"/>
-      <c r="H137" s="31"/>
-      <c r="I137" s="43"/>
-      <c r="J137" s="31"/>
-      <c r="K137" s="31"/>
-      <c r="L137" s="31"/>
-      <c r="M137" s="31"/>
-      <c r="N137" s="43"/>
-      <c r="O137" s="43"/>
-      <c r="P137" s="31"/>
-      <c r="Q137" s="31"/>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G137" s="46"/>
+      <c r="H137" s="49"/>
+      <c r="I137" s="50"/>
+      <c r="J137" s="49"/>
+      <c r="K137" s="49"/>
+      <c r="L137" s="49"/>
+      <c r="M137" s="49"/>
+      <c r="N137" s="50"/>
+      <c r="O137" s="50"/>
+      <c r="P137" s="49"/>
+      <c r="Q137" s="49"/>
+      <c r="R137" s="49"/>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="31"/>
       <c r="B138" s="31"/>
       <c r="C138" s="43"/>
       <c r="D138" s="31"/>
       <c r="E138" s="31"/>
       <c r="F138" s="31"/>
-      <c r="G138" s="31"/>
-      <c r="H138" s="31"/>
-      <c r="I138" s="43"/>
-      <c r="J138" s="31"/>
-      <c r="K138" s="31"/>
-      <c r="L138" s="31"/>
-      <c r="M138" s="31"/>
-      <c r="N138" s="43"/>
-      <c r="O138" s="43"/>
-      <c r="P138" s="31"/>
-      <c r="Q138" s="31"/>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G138" s="46"/>
+      <c r="H138" s="49"/>
+      <c r="I138" s="50"/>
+      <c r="J138" s="49"/>
+      <c r="K138" s="49"/>
+      <c r="L138" s="49"/>
+      <c r="M138" s="49"/>
+      <c r="N138" s="50"/>
+      <c r="O138" s="50"/>
+      <c r="P138" s="49"/>
+      <c r="Q138" s="49"/>
+      <c r="R138" s="49"/>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="31"/>
       <c r="B139" s="31"/>
       <c r="C139" s="43"/>
       <c r="D139" s="31"/>
       <c r="E139" s="31"/>
       <c r="F139" s="31"/>
-      <c r="G139" s="31"/>
-      <c r="H139" s="31"/>
-      <c r="I139" s="43"/>
-      <c r="J139" s="31"/>
-      <c r="K139" s="31"/>
-      <c r="L139" s="31"/>
-      <c r="M139" s="31"/>
-      <c r="N139" s="43"/>
-      <c r="O139" s="43"/>
-      <c r="P139" s="31"/>
-      <c r="Q139" s="31"/>
+      <c r="G139" s="46"/>
+      <c r="H139" s="49"/>
+      <c r="I139" s="50"/>
+      <c r="J139" s="49"/>
+      <c r="K139" s="49"/>
+      <c r="L139" s="49"/>
+      <c r="M139" s="49"/>
+      <c r="N139" s="50"/>
+      <c r="O139" s="50"/>
+      <c r="P139" s="49"/>
+      <c r="Q139" s="49"/>
+      <c r="R139" s="49"/>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H140" s="49"/>
+      <c r="I140" s="50"/>
+      <c r="J140" s="49"/>
+      <c r="K140" s="49"/>
+      <c r="L140" s="49"/>
+      <c r="M140" s="49"/>
+      <c r="N140" s="50"/>
+      <c r="O140" s="50"/>
+      <c r="P140" s="49"/>
+      <c r="Q140" s="49"/>
+      <c r="R140" s="49"/>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H141" s="49"/>
+      <c r="I141" s="50"/>
+      <c r="J141" s="49"/>
+      <c r="K141" s="49"/>
+      <c r="L141" s="49"/>
+      <c r="M141" s="49"/>
+      <c r="N141" s="50"/>
+      <c r="O141" s="50"/>
+      <c r="P141" s="49"/>
+      <c r="Q141" s="49"/>
+      <c r="R141" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6891,7 +7270,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>
@@ -7037,7 +7416,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>

--- a/SISTEMAS BIOMÉDICOS.xlsx
+++ b/SISTEMAS BIOMÉDICOS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ss\PlanesEstudio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultad\Servicio Social\FORMATOS FINALES CORREGIDOS COMPLETOS\PlanesEstudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -915,7 +915,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1203,27 +1203,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R87" sqref="R87"/>
+    <sheetView tabSelected="1" topLeftCell="I68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R82" sqref="R82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" style="44" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="47.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="44" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="8.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="44" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="44" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="43" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="44" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7270,7 +7272,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>
@@ -7416,7 +7418,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>
